--- a/database/Nov2024.xlsx
+++ b/database/Nov2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\bill-app-offline\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Webstack\bill-app\app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834EAA7-314D-4BAF-B30A-3689BA4AC159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044BAAE9-28FD-4F4B-8B9E-BB2A68AB0997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,15 +49,9 @@
     <t>par</t>
   </si>
   <si>
-    <t>villagerName</t>
-  </si>
-  <si>
     <t>vehicle_no</t>
   </si>
   <si>
-    <t>goodType</t>
-  </si>
-  <si>
     <t>before_wight</t>
   </si>
   <si>
@@ -101,6 +95,12 @@
   </si>
   <si>
     <t>Wheat</t>
+  </si>
+  <si>
+    <t>farmerName</t>
+  </si>
+  <si>
+    <t>farmerCode</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,22 +514,22 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -540,13 +540,13 @@
         <v>12345</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
       </c>
       <c r="F2">
         <v>87464</v>
@@ -558,16 +558,16 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
       <c r="M2">
         <v>900</v>
@@ -587,13 +587,13 @@
         <v>18764</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>23444</v>
@@ -605,16 +605,16 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
       </c>
       <c r="M3">
         <v>500</v>
